--- a/docs/swerve_test8.xlsx
+++ b/docs/swerve_test8.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjkim\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\03.robotics\esp32_willy\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F5A51B92-DDBC-41C4-9572-B95E33AD4AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="28910" windowHeight="12430" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="swerve calculator - quad" sheetId="1" r:id="rId1"/>
@@ -41,7 +40,7 @@
     <definedName name="STR" localSheetId="1">'swerve calculator - tri'!$B$7</definedName>
     <definedName name="STR">'swerve calculator - quad'!$B$7</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -57,14 +56,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -182,9 +181,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="184" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -399,7 +398,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -420,6 +419,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -433,14 +440,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="184" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -459,7 +458,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
@@ -545,7 +544,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CA4A-4E8F-86F3-C279FCFB6D29}"/>
             </c:ext>
@@ -605,7 +604,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CA4A-4E8F-86F3-C279FCFB6D29}"/>
             </c:ext>
@@ -619,11 +618,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="6913983"/>
-        <c:axId val="1"/>
+        <c:axId val="466840840"/>
+        <c:axId val="466841232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="6913983"/>
+        <c:axId val="466840840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -660,14 +659,14 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1"/>
+        <c:crossAx val="466841232"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1"/>
+        <c:axId val="466841232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -704,7 +703,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6913983"/>
+        <c:crossAx val="466840840"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -763,7 +762,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
@@ -849,7 +848,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1346-4227-A26E-F4682675047A}"/>
             </c:ext>
@@ -909,7 +908,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1346-4227-A26E-F4682675047A}"/>
             </c:ext>
@@ -923,11 +922,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="6919935"/>
-        <c:axId val="1"/>
+        <c:axId val="466842800"/>
+        <c:axId val="466843584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="6919935"/>
+        <c:axId val="466842800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -964,14 +963,14 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1"/>
+        <c:crossAx val="466843584"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1"/>
+        <c:axId val="466843584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1008,7 +1007,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6919935"/>
+        <c:crossAx val="466842800"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -1067,7 +1066,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
@@ -1153,7 +1152,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E670-484B-BB25-43A8EC3291F6}"/>
             </c:ext>
@@ -1213,7 +1212,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E670-484B-BB25-43A8EC3291F6}"/>
             </c:ext>
@@ -1227,11 +1226,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="6912991"/>
-        <c:axId val="1"/>
+        <c:axId val="76415568"/>
+        <c:axId val="76415960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="6912991"/>
+        <c:axId val="76415568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1268,14 +1267,14 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1"/>
+        <c:crossAx val="76415960"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1"/>
+        <c:axId val="76415960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1312,7 +1311,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6912991"/>
+        <c:crossAx val="76415568"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -1371,7 +1370,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
@@ -1457,7 +1456,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3352-45F7-8BBA-29B0E4392672}"/>
             </c:ext>
@@ -1517,7 +1516,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3352-45F7-8BBA-29B0E4392672}"/>
             </c:ext>
@@ -1531,11 +1530,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="6918447"/>
-        <c:axId val="1"/>
+        <c:axId val="76412040"/>
+        <c:axId val="423962528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="6918447"/>
+        <c:axId val="76412040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1572,14 +1571,14 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1"/>
+        <c:crossAx val="423962528"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1"/>
+        <c:axId val="423962528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1616,7 +1615,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6918447"/>
+        <c:crossAx val="76412040"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -1675,7 +1674,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
@@ -1737,10 +1736,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-0.50544946512442357</c:v>
+                  <c:v>-0.35355339059327373</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.50544946512442357</c:v>
+                  <c:v>0.35355339059327373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1752,16 +1751,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-0.35740674433659325</c:v>
+                  <c:v>-2.1657769510652658E-17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35740674433659325</c:v>
+                  <c:v>2.1657769510652658E-17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AAB3-40AF-A3E5-B4F7D01F82A6}"/>
             </c:ext>
@@ -1800,10 +1799,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-0.50544946512442357</c:v>
+                  <c:v>-0.35355339059327373</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.50544946512442357</c:v>
+                  <c:v>0.35355339059327373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1815,13 +1814,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="1">
-                  <c:v>0.35740674433659325</c:v>
+                  <c:v>2.1657769510652658E-17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AAB3-40AF-A3E5-B4F7D01F82A6}"/>
             </c:ext>
@@ -1835,11 +1834,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="6913983"/>
-        <c:axId val="1"/>
+        <c:axId val="431118592"/>
+        <c:axId val="431117416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="6913983"/>
+        <c:axId val="431118592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1876,14 +1875,14 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1"/>
+        <c:crossAx val="431117416"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1"/>
+        <c:axId val="431117416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1920,7 +1919,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6913983"/>
+        <c:crossAx val="431118592"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -1979,7 +1978,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
@@ -2041,10 +2040,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.50544946512442357</c:v>
+                  <c:v>0.35355339059327368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.50544946512442357</c:v>
+                  <c:v>-0.35355339059327368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2056,16 +2055,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-0.86285620946101682</c:v>
+                  <c:v>-0.35355339059327373</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86285620946101682</c:v>
+                  <c:v>0.35355339059327373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1468-4E81-924D-D961149DA979}"/>
             </c:ext>
@@ -2104,10 +2103,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.50544946512442357</c:v>
+                  <c:v>0.35355339059327368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.50544946512442357</c:v>
+                  <c:v>-0.35355339059327368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2119,13 +2118,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="1">
-                  <c:v>0.86285620946101682</c:v>
+                  <c:v>0.35355339059327373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1468-4E81-924D-D961149DA979}"/>
             </c:ext>
@@ -2139,11 +2138,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="6912991"/>
-        <c:axId val="1"/>
+        <c:axId val="431122904"/>
+        <c:axId val="431118984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="6912991"/>
+        <c:axId val="431122904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2180,14 +2179,14 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1"/>
+        <c:crossAx val="431118984"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1"/>
+        <c:axId val="431118984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2224,7 +2223,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6912991"/>
+        <c:crossAx val="431122904"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -2283,7 +2282,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
@@ -2345,10 +2344,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.50544946512442346</c:v>
+                  <c:v>0.35355339059327373</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.50544946512442346</c:v>
+                  <c:v>-0.35355339059327373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2360,16 +2359,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.14804272078783023</c:v>
+                  <c:v>0.35355339059327368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.14804272078783023</c:v>
+                  <c:v>-0.35355339059327368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E325-462D-8C78-8F088AEE1F63}"/>
             </c:ext>
@@ -2408,10 +2407,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.50544946512442346</c:v>
+                  <c:v>0.35355339059327373</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.50544946512442346</c:v>
+                  <c:v>-0.35355339059327373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2423,13 +2422,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="1">
-                  <c:v>-0.14804272078783023</c:v>
+                  <c:v>-0.35355339059327368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E325-462D-8C78-8F088AEE1F63}"/>
             </c:ext>
@@ -2443,11 +2442,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="6918447"/>
-        <c:axId val="1"/>
+        <c:axId val="431119376"/>
+        <c:axId val="431117024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="6918447"/>
+        <c:axId val="431119376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2484,14 +2483,14 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1"/>
+        <c:crossAx val="431117024"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1"/>
+        <c:axId val="431117024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2528,7 +2527,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6918447"/>
+        <c:crossAx val="431119376"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -2606,7 +2605,7 @@
         <xdr:cNvPr id="1033" name="차트 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E95242-2E6A-58B0-84B3-C687E82030A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57E95242-2E6A-58B0-84B3-C687E82030A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2644,7 +2643,7 @@
         <xdr:cNvPr id="1034" name="차트 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D03473B-9E24-833C-DBBE-10B26F122309}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D03473B-9E24-833C-DBBE-10B26F122309}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2682,7 +2681,7 @@
         <xdr:cNvPr id="1035" name="차트 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F29B7C2-FB01-C493-FC0F-1A82A385F17F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F29B7C2-FB01-C493-FC0F-1A82A385F17F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2720,7 +2719,7 @@
         <xdr:cNvPr id="1036" name="차트 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F06E8B15-1C85-30B7-898A-7BD57E2D6C23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F06E8B15-1C85-30B7-898A-7BD57E2D6C23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2763,7 +2762,7 @@
         <xdr:cNvPr id="2" name="차트 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276C45D2-B52F-411B-97D3-38511DBBB158}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{276C45D2-B52F-411B-97D3-38511DBBB158}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2801,7 +2800,7 @@
         <xdr:cNvPr id="4" name="차트 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B97A472A-82EA-4B93-9825-5DD6E30599D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B97A472A-82EA-4B93-9825-5DD6E30599D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2839,7 +2838,7 @@
         <xdr:cNvPr id="5" name="차트 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B08A7AF0-5485-467D-B4A1-420E4D8C135E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B08A7AF0-5485-467D-B4A1-420E4D8C135E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3220,7 +3219,7 @@
   <dimension ref="A1:V71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3237,29 +3236,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
     </row>
     <row r="2" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
@@ -3272,17 +3271,17 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B3" s="3">
@@ -3294,17 +3293,17 @@
       <c r="K3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B4" s="3">
@@ -3316,17 +3315,17 @@
       <c r="K4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="14">
@@ -3336,17 +3335,17 @@
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B6" s="13">
@@ -3363,17 +3362,17 @@
         <f>-B19*COS(B23/180*PI())</f>
         <v>0.35355339059327368</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
     </row>
     <row r="7" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B7" s="13">
@@ -3394,17 +3393,17 @@
         <f>E7</f>
         <v>-0.35355339059327368</v>
       </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
     </row>
     <row r="8" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B8" s="13">
@@ -3413,17 +3412,17 @@
       <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
     </row>
     <row r="9" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
@@ -3434,17 +3433,17 @@
       <c r="C9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
     </row>
     <row r="10" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
@@ -3455,17 +3454,17 @@
       <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
     </row>
     <row r="11" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
@@ -3476,17 +3475,17 @@
       <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
     </row>
     <row r="12" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
@@ -3497,17 +3496,17 @@
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
     </row>
     <row r="13" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5">
@@ -3517,17 +3516,17 @@
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
     </row>
     <row r="14" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5">
@@ -3537,17 +3536,17 @@
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
     </row>
     <row r="15" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="5">
@@ -3557,17 +3556,17 @@
       <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
     </row>
     <row r="16" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="5">
@@ -3577,17 +3576,17 @@
       <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
     </row>
     <row r="17" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5">
@@ -3595,32 +3594,32 @@
         <v>0.49999999999999994</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
     </row>
     <row r="18" spans="2:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
       <c r="C18" s="2"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
     </row>
     <row r="19" spans="2:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B19" s="5">
@@ -3638,17 +3637,17 @@
         <f>-B20*COS(B24/180*PI())</f>
         <v>-0.35355339059327373</v>
       </c>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
     </row>
     <row r="20" spans="2:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B20" s="5">
@@ -3670,17 +3669,17 @@
         <f>E20</f>
         <v>0.35355339059327373</v>
       </c>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
     </row>
     <row r="21" spans="2:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B21" s="5">
@@ -3690,17 +3689,17 @@
       <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
     </row>
     <row r="22" spans="2:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B22" s="5">
@@ -3718,17 +3717,17 @@
         <f>-B21*COS(B25/180*PI())</f>
         <v>-0.35355339059327373</v>
       </c>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
     </row>
     <row r="23" spans="2:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B23" s="6">
@@ -3750,17 +3749,17 @@
         <f>E23</f>
         <v>0.35355339059327373</v>
       </c>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
     </row>
     <row r="24" spans="2:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B24" s="6">
@@ -3770,17 +3769,17 @@
       <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
     </row>
     <row r="25" spans="2:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B25" s="6">
@@ -3798,17 +3797,17 @@
         <f>-B22*COS(B26/180*PI())</f>
         <v>0.35355339059327368</v>
       </c>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
     </row>
     <row r="26" spans="2:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B26" s="6">
@@ -3830,70 +3829,70 @@
         <f>E26</f>
         <v>-0.35355339059327368</v>
       </c>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
     </row>
     <row r="28" spans="2:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="C28" s="9"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
     </row>
     <row r="31" spans="2:22" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="8"/>
@@ -3905,17 +3904,17 @@
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
     </row>
     <row r="32" spans="2:22" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B32" s="8"/>
@@ -3923,7 +3922,7 @@
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="19" t="s">
         <v>23</v>
       </c>
       <c r="H32" s="8"/>
@@ -3948,7 +3947,7 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="16"/>
+      <c r="G33" s="20"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
@@ -3971,7 +3970,7 @@
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="16"/>
+      <c r="G34" s="20"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -3994,7 +3993,7 @@
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="16"/>
+      <c r="G35" s="20"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
@@ -4017,7 +4016,7 @@
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="16"/>
+      <c r="G36" s="20"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
@@ -4040,7 +4039,7 @@
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
-      <c r="G37" s="16"/>
+      <c r="G37" s="20"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
@@ -4063,7 +4062,7 @@
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="16"/>
+      <c r="G38" s="20"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
@@ -4086,7 +4085,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
-      <c r="G39" s="16"/>
+      <c r="G39" s="20"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
@@ -4109,7 +4108,7 @@
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
-      <c r="G40" s="16"/>
+      <c r="G40" s="20"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
@@ -4132,7 +4131,7 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
-      <c r="G41" s="16"/>
+      <c r="G41" s="20"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
@@ -4155,7 +4154,7 @@
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
-      <c r="G42" s="16"/>
+      <c r="G42" s="20"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
@@ -4178,7 +4177,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
-      <c r="G43" s="16"/>
+      <c r="G43" s="20"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
@@ -4201,7 +4200,7 @@
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
-      <c r="G44" s="16"/>
+      <c r="G44" s="20"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
@@ -4224,7 +4223,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
-      <c r="G45" s="16"/>
+      <c r="G45" s="20"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
@@ -4247,7 +4246,7 @@
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
-      <c r="G46" s="16"/>
+      <c r="G46" s="20"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
@@ -4270,7 +4269,7 @@
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="16"/>
+      <c r="G47" s="20"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
@@ -4293,7 +4292,7 @@
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
-      <c r="G48" s="16"/>
+      <c r="G48" s="20"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
@@ -4316,7 +4315,7 @@
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
-      <c r="G49" s="16"/>
+      <c r="G49" s="20"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
@@ -4339,7 +4338,7 @@
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
-      <c r="G50" s="16"/>
+      <c r="G50" s="20"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
@@ -4362,7 +4361,7 @@
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
-      <c r="G51" s="16"/>
+      <c r="G51" s="20"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
@@ -4385,7 +4384,7 @@
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
-      <c r="G52" s="16"/>
+      <c r="G52" s="20"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
@@ -4408,7 +4407,7 @@
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
-      <c r="G53" s="16"/>
+      <c r="G53" s="20"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
@@ -4431,7 +4430,7 @@
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
-      <c r="G54" s="16"/>
+      <c r="G54" s="20"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
@@ -4454,7 +4453,7 @@
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
-      <c r="G55" s="16"/>
+      <c r="G55" s="20"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
@@ -4477,7 +4476,7 @@
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
-      <c r="G56" s="16"/>
+      <c r="G56" s="20"/>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
@@ -4500,7 +4499,7 @@
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
-      <c r="G57" s="16"/>
+      <c r="G57" s="20"/>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
@@ -4523,7 +4522,7 @@
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
-      <c r="G58" s="16"/>
+      <c r="G58" s="20"/>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
@@ -4546,7 +4545,7 @@
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
-      <c r="G59" s="17"/>
+      <c r="G59" s="21"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
@@ -4857,8 +4856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4876,29 +4875,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
     </row>
     <row r="2" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
@@ -4911,17 +4910,17 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B3" s="3">
@@ -4933,17 +4932,17 @@
       <c r="K3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B4" s="3">
@@ -4955,17 +4954,17 @@
       <c r="K4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="14">
@@ -4975,45 +4974,45 @@
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B6" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="15">
         <f>-B22*SIN(B26/180*PI())</f>
-        <v>-0.50544946512442346</v>
-      </c>
-      <c r="E6" s="20">
+        <v>-0.35355339059327373</v>
+      </c>
+      <c r="E6" s="15">
         <f>-B22*COS(B26/180*PI())</f>
-        <v>0.14804272078783023</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
+        <v>0.35355339059327368</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
     </row>
     <row r="7" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B7" s="13">
@@ -5022,657 +5021,657 @@
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="15">
         <f>-D6</f>
-        <v>0.50544946512442346</v>
-      </c>
-      <c r="E7" s="20">
+        <v>0.35355339059327373</v>
+      </c>
+      <c r="E7" s="15">
         <f>-E6</f>
-        <v>-0.14804272078783023</v>
-      </c>
-      <c r="F7" s="20">
+        <v>-0.35355339059327368</v>
+      </c>
+      <c r="F7" s="15">
         <f>E7</f>
-        <v>-0.14804272078783023</v>
-      </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
+        <v>-0.35355339059327368</v>
+      </c>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
     </row>
     <row r="8" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B8" s="13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
     </row>
     <row r="9" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
         <f>STR-RCW*(_L/_R)</f>
-        <v>-0.70710678118654746</v>
+        <v>-0.35355339059327373</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
     </row>
     <row r="10" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <f>STR+RCW*(_L/_R)</f>
-        <v>0.70710678118654746</v>
+        <v>0.35355339059327373</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
     </row>
     <row r="11" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <f>FWD-RCW*(_W/_R)</f>
-        <v>-0.20710678118654746</v>
+        <v>-0.35355339059327373</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
     </row>
     <row r="12" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
         <f>FWD+RCW*(_W/_R)</f>
-        <v>1.2071067811865475</v>
+        <v>0.35355339059327373</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
     </row>
     <row r="13" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
         <f>FWD</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
     </row>
     <row r="14" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
     </row>
     <row r="15" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="21">
+      <c r="B15" s="16">
         <f>SQRT(_B^2+_C^2)</f>
-        <v>0.73681287910395021</v>
-      </c>
-      <c r="C15" s="22" t="s">
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
     </row>
     <row r="16" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="21">
+      <c r="B16" s="16">
         <f>SQRT(_B^2+_D^2)</f>
-        <v>1.3989663259659066</v>
-      </c>
-      <c r="C16" s="22" t="s">
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
     </row>
     <row r="17" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5">
         <f>SQRT(_A^2+_D^2)</f>
-        <v>1.3989663259659066</v>
+        <v>0.49999999999999994</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
     </row>
     <row r="18" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="5">
         <f>SQRT(_A^2+_C^2)</f>
-        <v>0.73681287910395021</v>
+        <v>0.49999999999999994</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
     </row>
     <row r="19" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="5" cm="1">
         <f t="array" ref="B19">SQRT(_B^2+_F^2)</f>
-        <v>0.8660254037844386</v>
+        <v>0.35355339059327373</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
     </row>
     <row r="20" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="5">
         <f>MAX(B15:B18)</f>
-        <v>1.3989663259659066</v>
+        <v>0.49999999999999994</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
     </row>
     <row r="21" spans="2:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
     </row>
     <row r="22" spans="2:22" ht="16" x14ac:dyDescent="0.45">
-      <c r="B22" s="21">
+      <c r="B22" s="16">
         <f>IF(_max&gt;1,B15/_max,B15)</f>
-        <v>0.52668378461162946</v>
-      </c>
-      <c r="C22" s="22" t="s">
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="15">
         <f>-B23*SIN(B27/180*PI())</f>
-        <v>-0.50544946512442357</v>
-      </c>
-      <c r="E22" s="20">
+        <v>-0.35355339059327368</v>
+      </c>
+      <c r="E22" s="15">
         <f>-B23*COS(B27/180*PI())</f>
-        <v>-0.86285620946101682</v>
-      </c>
-      <c r="F22" s="20"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
+        <v>-0.35355339059327373</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
     </row>
     <row r="23" spans="2:22" ht="16" x14ac:dyDescent="0.45">
-      <c r="B23" s="21">
+      <c r="B23" s="16">
         <f>IF(_max&gt;1,B16/_max,B16)</f>
-        <v>1</v>
-      </c>
-      <c r="C23" s="22" t="s">
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="15">
         <f>-D22</f>
-        <v>0.50544946512442357</v>
-      </c>
-      <c r="E23" s="20">
+        <v>0.35355339059327368</v>
+      </c>
+      <c r="E23" s="15">
         <f>-E22</f>
-        <v>0.86285620946101682</v>
-      </c>
-      <c r="F23" s="20">
+        <v>0.35355339059327373</v>
+      </c>
+      <c r="F23" s="15">
         <f>E23</f>
-        <v>0.86285620946101682</v>
-      </c>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
+        <v>0.35355339059327373</v>
+      </c>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
     </row>
     <row r="24" spans="2:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B24" s="5">
         <f>IF(_max&gt;1,B17/_max,B17)</f>
-        <v>1</v>
+        <v>0.49999999999999994</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
     </row>
     <row r="25" spans="2:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B25" s="5">
         <f>IF(_max&gt;1,B18/_max,B18)</f>
-        <v>0.52668378461162946</v>
+        <v>0.49999999999999994</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="15">
         <f>-B24*SIN(B28/180*PI())</f>
-        <v>0.50544946512442357</v>
-      </c>
-      <c r="E25" s="20">
+        <v>0.35355339059327368</v>
+      </c>
+      <c r="E25" s="15">
         <f>-B24*COS(B28/180*PI())</f>
-        <v>-0.86285620946101682</v>
-      </c>
-      <c r="F25" s="20"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
+        <v>-0.35355339059327373</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
     </row>
     <row r="26" spans="2:22" ht="16" x14ac:dyDescent="0.45">
-      <c r="B26" s="23">
+      <c r="B26" s="18">
         <f>IF(AND(_C=0,_B=0),0,ATAN2(_C,_B)*180/PI())</f>
-        <v>106.32494993689524</v>
-      </c>
-      <c r="C26" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="15">
         <f>-D25</f>
-        <v>-0.50544946512442357</v>
-      </c>
-      <c r="E26" s="20">
+        <v>-0.35355339059327368</v>
+      </c>
+      <c r="E26" s="15">
         <f>-E25</f>
-        <v>0.86285620946101682</v>
-      </c>
-      <c r="F26" s="20">
+        <v>0.35355339059327373</v>
+      </c>
+      <c r="F26" s="15">
         <f>E26</f>
-        <v>0.86285620946101682</v>
-      </c>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
+        <v>0.35355339059327373</v>
+      </c>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
     </row>
     <row r="27" spans="2:22" ht="16" x14ac:dyDescent="0.45">
-      <c r="B27" s="23">
+      <c r="B27" s="18">
         <f>IF(AND(_D=0,_B=0),0,ATAN2(_D,_B)*180/PI())</f>
-        <v>30.361193404821719</v>
-      </c>
-      <c r="C27" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
     </row>
     <row r="28" spans="2:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B28" s="6">
         <f>IF(AND(_D=0,_A=0),0,ATAN2(_D,_A)*180/PI())</f>
-        <v>-30.361193404821719</v>
+        <v>-45</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="15">
         <f>-B25*SIN(B29/180*PI())</f>
-        <v>0.50544946512442346</v>
-      </c>
-      <c r="E28" s="20">
+        <v>0.35355339059327373</v>
+      </c>
+      <c r="E28" s="15">
         <f>-B25*COS(B29/180*PI())</f>
-        <v>0.14804272078783023</v>
-      </c>
-      <c r="F28" s="20"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
+        <v>0.35355339059327368</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
     </row>
     <row r="29" spans="2:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B29" s="6">
         <f>IF(AND(_C=0,_A=0),0,ATAN2(_C,_A)*180/PI())</f>
-        <v>-106.32494993689524</v>
+        <v>-135</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="15">
         <f>-D28</f>
-        <v>-0.50544946512442346</v>
-      </c>
-      <c r="E29" s="20">
+        <v>-0.35355339059327373</v>
+      </c>
+      <c r="E29" s="15">
         <f>-E28</f>
-        <v>-0.14804272078783023</v>
-      </c>
-      <c r="F29" s="20">
+        <v>-0.35355339059327368</v>
+      </c>
+      <c r="F29" s="15">
         <f>E29</f>
-        <v>-0.14804272078783023</v>
-      </c>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
+        <v>-0.35355339059327368</v>
+      </c>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
     </row>
     <row r="31" spans="2:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B31" s="5">
         <f>IF(_max&gt;1,B19/_max,B19)</f>
-        <v>0.61904664015875965</v>
+        <v>0.35355339059327373</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="15">
         <f>-B31*SIN(B32/180*PI())</f>
-        <v>-0.50544946512442357</v>
-      </c>
-      <c r="E31" s="20">
+        <v>-0.35355339059327373</v>
+      </c>
+      <c r="E31" s="15">
         <f>-B31*COS(B32/180*PI())</f>
-        <v>-0.35740674433659325</v>
-      </c>
-      <c r="F31" s="20"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
+        <v>-2.1657769510652658E-17</v>
+      </c>
+      <c r="F31" s="15"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
     </row>
     <row r="32" spans="2:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B32" s="6">
         <f>IF(AND(_F=0,_B=0),0,ATAN2(_F,_B)*180/PI())</f>
-        <v>54.735610317245346</v>
+        <v>90</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="15">
         <f>-D31</f>
-        <v>0.50544946512442357</v>
-      </c>
-      <c r="E32" s="20">
+        <v>0.35355339059327373</v>
+      </c>
+      <c r="E32" s="15">
         <f>-E31</f>
-        <v>0.35740674433659325</v>
-      </c>
-      <c r="F32" s="20">
+        <v>2.1657769510652658E-17</v>
+      </c>
+      <c r="F32" s="15">
         <f>E32</f>
-        <v>0.35740674433659325</v>
-      </c>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
+        <v>2.1657769510652658E-17</v>
+      </c>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
     </row>
     <row r="34" spans="2:22" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="8"/>
@@ -5684,17 +5683,17 @@
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
     </row>
     <row r="35" spans="2:22" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B35" s="8"/>
@@ -5702,7 +5701,7 @@
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="19" t="s">
         <v>26</v>
       </c>
       <c r="H35" s="8"/>
@@ -5727,7 +5726,7 @@
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="16"/>
+      <c r="G36" s="20"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
@@ -5750,7 +5749,7 @@
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
-      <c r="G37" s="16"/>
+      <c r="G37" s="20"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
@@ -5773,7 +5772,7 @@
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="16"/>
+      <c r="G38" s="20"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
@@ -5796,7 +5795,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
-      <c r="G39" s="16"/>
+      <c r="G39" s="20"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
@@ -5819,7 +5818,7 @@
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
-      <c r="G40" s="16"/>
+      <c r="G40" s="20"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
@@ -5842,7 +5841,7 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
-      <c r="G41" s="16"/>
+      <c r="G41" s="20"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
@@ -5865,7 +5864,7 @@
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
-      <c r="G42" s="16"/>
+      <c r="G42" s="20"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
@@ -5888,7 +5887,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
-      <c r="G43" s="16"/>
+      <c r="G43" s="20"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
@@ -5911,7 +5910,7 @@
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
-      <c r="G44" s="16"/>
+      <c r="G44" s="20"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
@@ -5934,7 +5933,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
-      <c r="G45" s="16"/>
+      <c r="G45" s="20"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
@@ -5957,7 +5956,7 @@
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
-      <c r="G46" s="16"/>
+      <c r="G46" s="20"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
@@ -5980,7 +5979,7 @@
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="16"/>
+      <c r="G47" s="20"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
@@ -6003,7 +6002,7 @@
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
-      <c r="G48" s="16"/>
+      <c r="G48" s="20"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
@@ -6026,7 +6025,7 @@
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
-      <c r="G49" s="16"/>
+      <c r="G49" s="20"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
@@ -6049,7 +6048,7 @@
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
-      <c r="G50" s="16"/>
+      <c r="G50" s="20"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
@@ -6072,7 +6071,7 @@
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
-      <c r="G51" s="16"/>
+      <c r="G51" s="20"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
@@ -6095,7 +6094,7 @@
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
-      <c r="G52" s="16"/>
+      <c r="G52" s="20"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
@@ -6118,7 +6117,7 @@
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
-      <c r="G53" s="16"/>
+      <c r="G53" s="20"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
@@ -6141,7 +6140,7 @@
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
-      <c r="G54" s="16"/>
+      <c r="G54" s="20"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
@@ -6164,7 +6163,7 @@
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
-      <c r="G55" s="16"/>
+      <c r="G55" s="20"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
@@ -6187,7 +6186,7 @@
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
-      <c r="G56" s="16"/>
+      <c r="G56" s="20"/>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
@@ -6210,7 +6209,7 @@
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
-      <c r="G57" s="16"/>
+      <c r="G57" s="20"/>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
@@ -6233,7 +6232,7 @@
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
-      <c r="G58" s="16"/>
+      <c r="G58" s="20"/>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
@@ -6256,7 +6255,7 @@
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
-      <c r="G59" s="16"/>
+      <c r="G59" s="20"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
@@ -6279,7 +6278,7 @@
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
-      <c r="G60" s="16"/>
+      <c r="G60" s="20"/>
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
@@ -6302,7 +6301,7 @@
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
-      <c r="G61" s="16"/>
+      <c r="G61" s="20"/>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
@@ -6325,7 +6324,7 @@
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
-      <c r="G62" s="17"/>
+      <c r="G62" s="21"/>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
